--- a/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="286">
   <si>
     <t xml:space="preserve">Shift Name</t>
   </si>
@@ -467,18 +467,12 @@
     <t xml:space="preserve">WorkDuration#17</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#17</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#17</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#17</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_Approved_H</t>
   </si>
   <si>
@@ -488,18 +482,12 @@
     <t xml:space="preserve">WorkDuration#18</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#18</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#18</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#18</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_Approved_W</t>
   </si>
   <si>
@@ -509,18 +497,12 @@
     <t xml:space="preserve">WorkDuration#19</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#19</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#19</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#19</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_Approved_Both</t>
   </si>
   <si>
@@ -530,18 +512,12 @@
     <t xml:space="preserve">WorkDuration#20</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#20</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#20</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#20</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_None</t>
   </si>
   <si>
@@ -551,18 +527,12 @@
     <t xml:space="preserve">WorkDuration#21</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#21</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#21</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#21</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_H</t>
   </si>
   <si>
@@ -572,18 +542,12 @@
     <t xml:space="preserve">WorkDuration#22</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#22</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#22</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#22</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_W</t>
   </si>
   <si>
@@ -593,18 +557,12 @@
     <t xml:space="preserve">WorkDuration#23</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#23</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#23</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#23</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_AbHalfFinalLateByEarlyBy_Both</t>
   </si>
   <si>
@@ -614,18 +572,12 @@
     <t xml:space="preserve">WorkDuration#24</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#24</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#24</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#24</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_Approved_None</t>
   </si>
   <si>
@@ -635,18 +587,12 @@
     <t xml:space="preserve">WorkDuration#25</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#25</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#25</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#25</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_Approved_H</t>
   </si>
   <si>
@@ -656,18 +602,12 @@
     <t xml:space="preserve">WorkDuration#26</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#26</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#26</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#26</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_Approved_W</t>
   </si>
   <si>
@@ -677,18 +617,12 @@
     <t xml:space="preserve">WorkDuration#27</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#27</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#27</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#27</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_Approved_Both</t>
   </si>
   <si>
@@ -698,18 +632,12 @@
     <t xml:space="preserve">WorkDuration#28</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#28</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#28</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#28</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_None</t>
   </si>
   <si>
@@ -719,18 +647,12 @@
     <t xml:space="preserve">WorkDuration#29</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#29</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#29</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#29</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_H</t>
   </si>
   <si>
@@ -740,18 +662,12 @@
     <t xml:space="preserve">WorkDuration#30</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#30</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#30</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#30</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_W</t>
   </si>
   <si>
@@ -761,18 +677,12 @@
     <t xml:space="preserve">WorkDuration#31</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#31</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#31</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#31</t>
   </si>
   <si>
-    <t xml:space="preserve">EarlyDuration#31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Policy_Inday_AbHalfFinalLateByEarlyBy_Both</t>
   </si>
   <si>
@@ -782,16 +692,10 @@
     <t xml:space="preserve">WorkDuration#32</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDuration#32</t>
-  </si>
-  <si>
     <t xml:space="preserve">LateMark#32</t>
   </si>
   <si>
     <t xml:space="preserve">EarlyMark#32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyDuration#32</t>
   </si>
   <si>
     <t xml:space="preserve">LeaveName</t>
@@ -1256,31 +1160,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,16 +1204,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,16 +1233,16 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1358,16 +1262,16 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,16 +1291,16 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,16 +1320,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,16 +1349,16 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,16 +1378,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,16 +1407,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,16 +1436,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,16 +1465,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,16 +1494,16 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,16 +1523,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,16 +1552,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,16 +1581,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,16 +1610,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,16 +1639,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,16 +1668,16 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,16 +1697,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,16 +1726,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,16 +1755,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,16 +1784,16 @@
         <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,16 +1813,16 @@
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,16 +1842,16 @@
         <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1967,16 +1871,16 @@
         <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,16 +1900,16 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,16 +1929,16 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,16 +1958,16 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,16 +1987,16 @@
         <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,16 +2016,16 @@
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,16 +2074,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,16 +2103,16 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,16 +2132,16 @@
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,16 +2161,16 @@
         <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,16 +2190,16 @@
         <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,16 +2219,16 @@
         <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,16 +2277,16 @@
         <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,16 +2306,16 @@
         <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,16 +2335,16 @@
         <v>11</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,16 +2364,16 @@
         <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,16 +2393,16 @@
         <v>16</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,16 +2422,16 @@
         <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,16 +2451,16 @@
         <v>16</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,16 +2480,16 @@
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,16 +2509,16 @@
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,16 +2538,16 @@
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,16 +2567,16 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,16 +2596,16 @@
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,16 +2625,16 @@
         <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,16 +2654,16 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,16 +2683,16 @@
         <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,16 +2712,16 @@
         <v>11</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,16 +2741,16 @@
         <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,16 +2770,16 @@
         <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,16 +2799,16 @@
         <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,16 +2828,16 @@
         <v>16</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,16 +2857,16 @@
         <v>16</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,16 +2886,16 @@
         <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,16 +2915,16 @@
         <v>16</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,16 +2944,16 @@
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,16 +2973,16 @@
         <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,16 +3002,16 @@
         <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,16 +3031,16 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,16 +3060,16 @@
         <v>16</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,16 +3089,16 @@
         <v>16</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,16 +3118,16 @@
         <v>16</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,16 +3147,16 @@
         <v>16</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,16 +3176,16 @@
         <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,16 +3205,16 @@
         <v>11</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,16 +3234,16 @@
         <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,16 +3263,16 @@
         <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,16 +3292,16 @@
         <v>16</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,16 +3321,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,16 +3350,16 @@
         <v>16</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,16 +3379,16 @@
         <v>16</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,16 +3408,16 @@
         <v>11</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,16 +3437,16 @@
         <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,16 +3466,16 @@
         <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,16 +3495,16 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,16 +3524,16 @@
         <v>16</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,16 +3553,16 @@
         <v>16</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,16 +3582,16 @@
         <v>16</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,16 +3611,16 @@
         <v>16</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,16 +3669,16 @@
         <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,16 +3698,16 @@
         <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,16 +3727,16 @@
         <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,16 +3756,16 @@
         <v>16</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,16 +3785,16 @@
         <v>16</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,16 +3814,16 @@
         <v>16</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,16 +3843,16 @@
         <v>16</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,16 +3872,16 @@
         <v>11</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,16 +3901,16 @@
         <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,16 +3930,16 @@
         <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,16 +3959,16 @@
         <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,16 +3988,16 @@
         <v>16</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,16 +4017,16 @@
         <v>16</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,16 +4046,16 @@
         <v>16</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,16 +4075,16 @@
         <v>16</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,16 +4104,16 @@
         <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,16 +4133,16 @@
         <v>11</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,16 +4162,16 @@
         <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,16 +4191,16 @@
         <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,16 +4220,16 @@
         <v>16</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,16 +4249,16 @@
         <v>16</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,16 +4278,16 @@
         <v>16</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,16 +4307,16 @@
         <v>16</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,16 +4336,16 @@
         <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,16 +4365,16 @@
         <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,16 +4394,16 @@
         <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,16 +4423,16 @@
         <v>11</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>16</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,16 +4452,16 @@
         <v>16</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,16 +4481,16 @@
         <v>16</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,16 +4510,16 @@
         <v>16</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,16 +4539,16 @@
         <v>16</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,16 +4568,16 @@
         <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,16 +4597,16 @@
         <v>11</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,16 +4626,16 @@
         <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,16 +4655,16 @@
         <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,16 +4684,16 @@
         <v>16</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4809,16 +4713,16 @@
         <v>16</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,16 +4742,16 @@
         <v>16</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,16 +4771,16 @@
         <v>16</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,16 +4800,16 @@
         <v>11</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,16 +4829,16 @@
         <v>11</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,16 +4858,16 @@
         <v>11</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,16 +4887,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5028,36 +4932,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>16</v>
@@ -5069,13 +4973,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5112,13 +5016,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>22</v>
@@ -5127,19 +5031,19 @@
         <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,31 +5141,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,36 +5261,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>16</v>
@@ -5397,22 +5301,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5433,7 +5337,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5448,44 +5352,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5506,10 +5410,10 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6169,19 +6073,19 @@
         <v>141</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>11</v>
@@ -6192,31 +6096,31 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="H20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>11</v>
@@ -6227,31 +6131,31 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>11</v>
@@ -6262,31 +6166,31 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>11</v>
@@ -6297,31 +6201,31 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>11</v>
@@ -6332,31 +6236,31 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>11</v>
@@ -6367,31 +6271,31 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>11</v>
@@ -6402,31 +6306,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>11</v>
@@ -6437,31 +6341,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>11</v>
@@ -6472,31 +6376,31 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>11</v>
@@ -6507,31 +6411,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>11</v>
@@ -6542,31 +6446,31 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>11</v>
@@ -6577,31 +6481,31 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>229</v>
+        <v>117</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>11</v>
@@ -6612,31 +6516,31 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>11</v>
@@ -6647,31 +6551,31 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>11</v>
@@ -6682,31 +6586,31 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>11</v>
@@ -6747,7 +6651,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>4</v>
@@ -6828,7 +6732,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6843,22 +6747,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,7 +6782,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6898,7 +6802,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,7 +6822,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,7 +6842,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,7 +6862,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6978,7 +6882,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6998,7 +6902,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7018,7 +6922,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,7 +6942,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7058,7 +6962,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7078,7 +6982,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,7 +7002,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,7 +7022,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,7 +7042,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7158,7 +7062,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7178,7 +7082,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7198,7 +7102,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7218,7 +7122,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,7 +7142,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,7 +7162,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7278,7 +7182,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7298,7 +7202,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7318,7 +7222,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7338,7 +7242,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,7 +7262,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,7 +7282,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7398,7 +7302,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7418,7 +7322,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7438,7 +7342,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,7 +7382,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7498,7 +7402,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -7534,28 +7438,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,10 +7479,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>16</v>
@@ -7601,10 +7505,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>16</v>
@@ -7627,10 +7531,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>16</v>
@@ -7653,10 +7557,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>16</v>
@@ -7679,10 +7583,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>16</v>
@@ -7705,10 +7609,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>16</v>
@@ -7731,10 +7635,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>16</v>
@@ -7757,10 +7661,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>16</v>
@@ -7783,10 +7687,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>16</v>
@@ -7809,10 +7713,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>16</v>
@@ -7835,10 +7739,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>16</v>
@@ -7861,10 +7765,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>16</v>
@@ -7887,10 +7791,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>16</v>
@@ -7913,10 +7817,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>16</v>
@@ -7939,10 +7843,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>16</v>
@@ -7965,10 +7869,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>16</v>
@@ -7991,10 +7895,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -8017,10 +7921,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -8043,10 +7947,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -8069,10 +7973,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -8095,10 +7999,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -8121,10 +8025,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -8147,10 +8051,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -8173,10 +8077,10 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -8199,10 +8103,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -8225,10 +8129,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -8251,10 +8155,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -8277,10 +8181,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -8303,10 +8207,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -8329,10 +8233,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -8355,10 +8259,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -8381,10 +8285,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -8420,25 +8324,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8458,10 +8362,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,10 +8385,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8504,10 +8408,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8527,10 +8431,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8550,10 +8454,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,10 +8477,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8596,10 +8500,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8619,10 +8523,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,10 +8546,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,10 +8569,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8688,10 +8592,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8711,10 +8615,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8734,10 +8638,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8757,10 +8661,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8780,10 +8684,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,10 +8707,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -8842,28 +8746,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8883,10 +8787,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>16</v>
@@ -8909,10 +8813,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>16</v>
@@ -8935,10 +8839,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>16</v>
@@ -8961,10 +8865,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>16</v>
@@ -8987,10 +8891,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>16</v>
@@ -9013,10 +8917,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>16</v>
@@ -9039,10 +8943,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>16</v>
@@ -9065,10 +8969,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>16</v>
@@ -9091,10 +8995,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>16</v>
@@ -9117,10 +9021,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>16</v>
@@ -9143,10 +9047,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>16</v>
@@ -9169,10 +9073,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>16</v>
@@ -9195,10 +9099,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>16</v>
@@ -9221,10 +9125,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>16</v>
@@ -9247,10 +9151,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>16</v>
@@ -9273,10 +9177,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>16</v>
@@ -9299,10 +9203,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -9325,10 +9229,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -9351,10 +9255,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -9377,10 +9281,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -9403,10 +9307,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -9429,10 +9333,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -9455,10 +9359,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -9481,10 +9385,10 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -9507,10 +9411,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -9533,10 +9437,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -9559,10 +9463,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -9585,10 +9489,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -9611,10 +9515,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -9637,10 +9541,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -9663,10 +9567,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -9689,10 +9593,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -9715,10 +9619,10 @@
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>16</v>
@@ -9741,10 +9645,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>16</v>
@@ -9767,10 +9671,10 @@
         <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>16</v>
@@ -9793,10 +9697,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>16</v>
@@ -9819,10 +9723,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>16</v>
@@ -9845,10 +9749,10 @@
         <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>16</v>
@@ -9871,10 +9775,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>16</v>
@@ -9897,10 +9801,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>16</v>
@@ -9923,10 +9827,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>16</v>
@@ -9949,10 +9853,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>16</v>
@@ -9975,10 +9879,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>16</v>
@@ -10001,10 +9905,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>16</v>
@@ -10027,10 +9931,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>16</v>
@@ -10053,10 +9957,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>16</v>
@@ -10079,10 +9983,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>16</v>
@@ -10105,10 +10009,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>16</v>
@@ -10131,10 +10035,10 @@
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
@@ -10157,10 +10061,10 @@
         <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
@@ -10183,10 +10087,10 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
@@ -10209,10 +10113,10 @@
         <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
@@ -10235,10 +10139,10 @@
         <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
@@ -10261,10 +10165,10 @@
         <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
@@ -10287,10 +10191,10 @@
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
@@ -10313,10 +10217,10 @@
         <v>16</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
@@ -10339,10 +10243,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
@@ -10365,10 +10269,10 @@
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
@@ -10391,10 +10295,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
@@ -10417,10 +10321,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
@@ -10443,10 +10347,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
@@ -10469,10 +10373,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
@@ -10495,10 +10399,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
@@ -10521,10 +10425,10 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
@@ -10563,28 +10467,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10604,10 +10508,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>16</v>
@@ -10630,10 +10534,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>16</v>
@@ -10656,10 +10560,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>16</v>
@@ -10682,10 +10586,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>16</v>
@@ -10708,10 +10612,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>16</v>
@@ -10734,10 +10638,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>16</v>
@@ -10760,10 +10664,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>16</v>
@@ -10786,10 +10690,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>16</v>
@@ -10812,10 +10716,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>16</v>
@@ -10838,10 +10742,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>16</v>
@@ -10864,10 +10768,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>16</v>
@@ -10890,10 +10794,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>16</v>
@@ -10916,10 +10820,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>16</v>
@@ -10942,10 +10846,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>16</v>
@@ -10968,10 +10872,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>16</v>
@@ -10994,10 +10898,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>16</v>
@@ -11020,10 +10924,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -11046,10 +10950,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -11072,10 +10976,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -11098,10 +11002,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -11124,10 +11028,10 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -11150,10 +11054,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -11176,10 +11080,10 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -11202,10 +11106,10 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -11228,10 +11132,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -11254,10 +11158,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -11280,10 +11184,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -11306,10 +11210,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -11332,10 +11236,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -11358,10 +11262,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -11384,10 +11288,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -11410,10 +11314,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -11436,10 +11340,10 @@
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>16</v>
@@ -11462,10 +11366,10 @@
         <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>16</v>
@@ -11488,10 +11392,10 @@
         <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>16</v>
@@ -11514,10 +11418,10 @@
         <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>16</v>
@@ -11540,10 +11444,10 @@
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>16</v>
@@ -11566,10 +11470,10 @@
         <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>16</v>
@@ -11592,10 +11496,10 @@
         <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>16</v>
@@ -11618,10 +11522,10 @@
         <v>16</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>16</v>
@@ -11644,10 +11548,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>16</v>
@@ -11670,10 +11574,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>16</v>
@@ -11696,10 +11600,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>16</v>
@@ -11722,10 +11626,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>16</v>
@@ -11748,10 +11652,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>16</v>
@@ -11774,10 +11678,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>16</v>
@@ -11800,10 +11704,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>16</v>
@@ -11826,10 +11730,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>16</v>
@@ -11852,10 +11756,10 @@
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
@@ -11878,10 +11782,10 @@
         <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
@@ -11904,10 +11808,10 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
@@ -11930,10 +11834,10 @@
         <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
@@ -11956,10 +11860,10 @@
         <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
@@ -11982,10 +11886,10 @@
         <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
@@ -12008,10 +11912,10 @@
         <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
@@ -12034,10 +11938,10 @@
         <v>16</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
@@ -12060,10 +11964,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
@@ -12086,10 +11990,10 @@
         <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
@@ -12112,10 +12016,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
@@ -12138,10 +12042,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
@@ -12164,10 +12068,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
@@ -12190,10 +12094,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
@@ -12216,10 +12120,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
@@ -12242,10 +12146,10 @@
         <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
@@ -12269,7 +12173,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -12281,25 +12185,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12319,10 +12223,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,10 +12246,10 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12365,10 +12269,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12388,10 +12292,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12411,10 +12315,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12434,10 +12338,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12457,10 +12361,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12480,10 +12384,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12503,10 +12407,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12526,10 +12430,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12549,10 +12453,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12572,10 +12476,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12595,10 +12499,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12618,10 +12522,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,10 +12545,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12664,10 +12568,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4174" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4188" uniqueCount="366">
   <si>
     <t xml:space="preserve">Shift Name</t>
   </si>
@@ -1121,7 +1121,22 @@
     <t xml:space="preserve">5cf6581814b73</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
     <t xml:space="preserve">wild1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5cf0e202e3997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c4506aa7beb9</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1288,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A3:A66 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1441,7 +1456,7 @@
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="A3:A66 J3"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5603,7 +5618,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A3:A66 I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5686,7 +5701,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="A3:A66 J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5814,7 +5829,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A3:A66 I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5930,7 +5945,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="A3:A66 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6020,10 +6035,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="1" sqref="A3:A66 F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6105,12 +6120,14 @@
       <c r="C4" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="E4" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6123,12 +6140,54 @@
       <c r="C5" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6149,10 +6208,10 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3:A66"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8499,7 +8558,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A3:A66 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8626,7 +8685,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A3:A66 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9417,7 +9476,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A3:A66 I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10405,7 +10464,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A3:A66 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10875,7 +10934,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A3:A66 I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12791,7 +12850,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="A3:A66 I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14707,7 +14766,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A3:A66 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4895" uniqueCount="497">
   <si>
     <t xml:space="preserve">Shift Name</t>
   </si>
@@ -1008,6 +1008,294 @@
   </si>
   <si>
     <t xml:space="preserve">WorkDuration#32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_Approved_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_Approved_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_Approved_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_Approved_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_LateEarlyFull_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_Approved_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_Approved_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_Approved_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_Approved_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_LateEarlyFull_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_Approved_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_Approved_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_Approved_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_Approved_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_ForEveryLateEarlyFull_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_Approved_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_Approved_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_Approved_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_Approved_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy_Inday_ForEveryLateEarlyFull_Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LateMark#64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyMark#64</t>
   </si>
   <si>
     <t xml:space="preserve">LeaveName</t>
@@ -1578,31 +1866,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -1625,16 +1913,16 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>11</v>
@@ -1657,16 +1945,16 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>11</v>
@@ -1689,16 +1977,16 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>11</v>
@@ -1721,16 +2009,16 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>11</v>
@@ -1753,16 +2041,16 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>11</v>
@@ -1785,16 +2073,16 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>11</v>
@@ -1817,16 +2105,16 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>11</v>
@@ -1849,16 +2137,16 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>11</v>
@@ -1881,16 +2169,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>11</v>
@@ -1913,16 +2201,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>11</v>
@@ -1945,16 +2233,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>11</v>
@@ -1977,16 +2265,16 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>11</v>
@@ -2009,16 +2297,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>11</v>
@@ -2041,16 +2329,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>11</v>
@@ -2073,16 +2361,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>11</v>
@@ -2105,16 +2393,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>11</v>
@@ -2137,16 +2425,16 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>11</v>
@@ -2169,16 +2457,16 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>11</v>
@@ -2201,16 +2489,16 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>11</v>
@@ -2233,16 +2521,16 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>11</v>
@@ -2265,16 +2553,16 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>11</v>
@@ -2297,16 +2585,16 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>11</v>
@@ -2329,16 +2617,16 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>11</v>
@@ -2361,16 +2649,16 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>11</v>
@@ -2393,16 +2681,16 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>11</v>
@@ -2425,16 +2713,16 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>11</v>
@@ -2457,16 +2745,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>11</v>
@@ -2489,16 +2777,16 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>11</v>
@@ -2521,16 +2809,16 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>11</v>
@@ -2553,16 +2841,16 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>11</v>
@@ -2585,16 +2873,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>11</v>
@@ -2617,16 +2905,16 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>11</v>
@@ -2649,16 +2937,16 @@
         <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>11</v>
@@ -2681,16 +2969,16 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>11</v>
@@ -2713,16 +3001,16 @@
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>11</v>
@@ -2731,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,16 +3039,16 @@
         <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>11</v>
@@ -2769,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2789,16 +3077,16 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>11</v>
@@ -2807,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,16 +3115,16 @@
         <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>11</v>
@@ -2859,16 +3147,16 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>11</v>
@@ -2891,16 +3179,16 @@
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>11</v>
@@ -2923,16 +3211,16 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>11</v>
@@ -2955,16 +3243,16 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>11</v>
@@ -2987,16 +3275,16 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>11</v>
@@ -3019,16 +3307,16 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>11</v>
@@ -3051,16 +3339,16 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>11</v>
@@ -3083,16 +3371,16 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>11</v>
@@ -3115,16 +3403,16 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>11</v>
@@ -3147,16 +3435,16 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>11</v>
@@ -3179,16 +3467,16 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>11</v>
@@ -3211,16 +3499,16 @@
         <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>11</v>
@@ -3243,16 +3531,16 @@
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>11</v>
@@ -3275,16 +3563,16 @@
         <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>11</v>
@@ -3307,16 +3595,16 @@
         <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>11</v>
@@ -3339,16 +3627,16 @@
         <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>11</v>
@@ -3371,16 +3659,16 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>11</v>
@@ -3403,16 +3691,16 @@
         <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>11</v>
@@ -3435,16 +3723,16 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>11</v>
@@ -3467,16 +3755,16 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>11</v>
@@ -3499,16 +3787,16 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>11</v>
@@ -3531,16 +3819,16 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>11</v>
@@ -3563,16 +3851,16 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>11</v>
@@ -3595,16 +3883,16 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>11</v>
@@ -3627,16 +3915,16 @@
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>11</v>
@@ -3659,16 +3947,16 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>11</v>
@@ -3691,16 +3979,16 @@
         <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>11</v>
@@ -3723,16 +4011,16 @@
         <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>11</v>
@@ -3755,16 +4043,16 @@
         <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>11</v>
@@ -3787,16 +4075,16 @@
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>11</v>
@@ -3819,16 +4107,16 @@
         <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>11</v>
@@ -3851,16 +4139,16 @@
         <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>11</v>
@@ -3883,16 +4171,16 @@
         <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>11</v>
@@ -3915,16 +4203,16 @@
         <v>34</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>11</v>
@@ -3947,16 +4235,16 @@
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>11</v>
@@ -3979,16 +4267,16 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>11</v>
@@ -4011,16 +4299,16 @@
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>11</v>
@@ -4043,16 +4331,16 @@
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>11</v>
@@ -4075,16 +4363,16 @@
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>11</v>
@@ -4107,16 +4395,16 @@
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>11</v>
@@ -4139,16 +4427,16 @@
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>11</v>
@@ -4171,16 +4459,16 @@
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>11</v>
@@ -4203,16 +4491,16 @@
         <v>34</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>11</v>
@@ -4235,16 +4523,16 @@
         <v>34</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>11</v>
@@ -4267,16 +4555,16 @@
         <v>34</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>11</v>
@@ -4299,16 +4587,16 @@
         <v>34</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>11</v>
@@ -4331,16 +4619,16 @@
         <v>34</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J86" s="0" t="s">
         <v>11</v>
@@ -4363,16 +4651,16 @@
         <v>34</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>11</v>
@@ -4395,16 +4683,16 @@
         <v>34</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>11</v>
@@ -4427,16 +4715,16 @@
         <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>11</v>
@@ -4459,16 +4747,16 @@
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>11</v>
@@ -4491,16 +4779,16 @@
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>11</v>
@@ -4523,16 +4811,16 @@
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>11</v>
@@ -4555,16 +4843,16 @@
         <v>11</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>11</v>
@@ -4587,16 +4875,16 @@
         <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J94" s="0" t="s">
         <v>11</v>
@@ -4619,16 +4907,16 @@
         <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J95" s="0" t="s">
         <v>11</v>
@@ -4651,16 +4939,16 @@
         <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>11</v>
@@ -4683,16 +4971,16 @@
         <v>11</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>11</v>
@@ -4715,16 +5003,16 @@
         <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>11</v>
@@ -4747,16 +5035,16 @@
         <v>34</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>11</v>
@@ -4779,16 +5067,16 @@
         <v>34</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>11</v>
@@ -4811,16 +5099,16 @@
         <v>34</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>11</v>
@@ -4843,16 +5131,16 @@
         <v>34</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>11</v>
@@ -4875,16 +5163,16 @@
         <v>34</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>11</v>
@@ -4907,16 +5195,16 @@
         <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>11</v>
@@ -4939,16 +5227,16 @@
         <v>34</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>11</v>
@@ -4971,16 +5259,16 @@
         <v>11</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>11</v>
@@ -5003,16 +5291,16 @@
         <v>11</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>11</v>
@@ -5035,16 +5323,16 @@
         <v>11</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J108" s="0" t="s">
         <v>11</v>
@@ -5067,16 +5355,16 @@
         <v>11</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>11</v>
@@ -5099,16 +5387,16 @@
         <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J110" s="0" t="s">
         <v>11</v>
@@ -5131,16 +5419,16 @@
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>11</v>
@@ -5163,16 +5451,16 @@
         <v>11</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>11</v>
@@ -5195,16 +5483,16 @@
         <v>11</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J113" s="0" t="s">
         <v>11</v>
@@ -5227,16 +5515,16 @@
         <v>34</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>11</v>
@@ -5259,16 +5547,16 @@
         <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>11</v>
@@ -5291,16 +5579,16 @@
         <v>34</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>11</v>
@@ -5323,16 +5611,16 @@
         <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J117" s="0" t="s">
         <v>11</v>
@@ -5355,16 +5643,16 @@
         <v>34</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>11</v>
@@ -5387,16 +5675,16 @@
         <v>34</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>11</v>
@@ -5419,16 +5707,16 @@
         <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>11</v>
@@ -5451,16 +5739,16 @@
         <v>34</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>11</v>
@@ -5483,16 +5771,16 @@
         <v>11</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>11</v>
@@ -5515,16 +5803,16 @@
         <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J123" s="0" t="s">
         <v>11</v>
@@ -5547,16 +5835,16 @@
         <v>11</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J124" s="0" t="s">
         <v>11</v>
@@ -5579,16 +5867,16 @@
         <v>11</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>11</v>
@@ -5611,16 +5899,16 @@
         <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>11</v>
@@ -5643,16 +5931,16 @@
         <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>11</v>
@@ -5675,16 +5963,16 @@
         <v>11</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>11</v>
@@ -5707,16 +5995,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>11</v>
@@ -5755,36 +6043,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>34</v>
@@ -5796,13 +6084,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>357</v>
+        <v>453</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5839,13 +6127,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -5854,19 +6142,19 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,31 +6252,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,36 +6372,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>34</v>
@@ -6124,22 +6412,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -6175,19 +6463,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -6195,19 +6483,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>391</v>
+        <v>487</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>11</v>
@@ -6215,19 +6503,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>11</v>
@@ -6235,19 +6523,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>395</v>
+        <v>491</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>11</v>
@@ -6255,19 +6543,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>11</v>
@@ -6275,19 +6563,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>11</v>
@@ -6295,19 +6583,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>11</v>
@@ -6329,12 +6617,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8692,7 +8980,7 @@
         <v>11</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,7 +9015,7 @@
         <v>11</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8762,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8797,7 +9085,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8832,7 +9120,7 @@
         <v>11</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8867,7 +9155,7 @@
         <v>11</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8902,7 +9190,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8937,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8972,7 +9260,7 @@
         <v>11</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,7 +9295,7 @@
         <v>11</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9042,7 +9330,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9077,7 +9365,7 @@
         <v>11</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9112,7 +9400,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9147,7 +9435,7 @@
         <v>11</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9182,7 +9470,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,7 +9505,7 @@
         <v>11</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9252,7 +9540,7 @@
         <v>11</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9287,7 +9575,7 @@
         <v>11</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9322,7 +9610,7 @@
         <v>11</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9357,7 +9645,7 @@
         <v>11</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9392,7 +9680,7 @@
         <v>11</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9427,7 +9715,7 @@
         <v>11</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9462,7 +9750,7 @@
         <v>11</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9497,7 +9785,7 @@
         <v>11</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9532,7 +9820,7 @@
         <v>11</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9567,7 +9855,7 @@
         <v>11</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,7 +9890,7 @@
         <v>11</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9637,7 +9925,7 @@
         <v>11</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9672,7 +9960,7 @@
         <v>11</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9707,7 +9995,7 @@
         <v>11</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9742,7 +10030,7 @@
         <v>11</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9777,6 +10065,1126 @@
         <v>11</v>
       </c>
       <c r="K98" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9812,7 +11220,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -9943,22 +11351,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
@@ -9981,7 +11389,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -10004,7 +11412,7 @@
         <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>11</v>
@@ -10027,7 +11435,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>11</v>
@@ -10050,7 +11458,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>11</v>
@@ -10073,7 +11481,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>11</v>
@@ -10096,7 +11504,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>11</v>
@@ -10119,7 +11527,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>11</v>
@@ -10142,7 +11550,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>11</v>
@@ -10165,7 +11573,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>11</v>
@@ -10188,7 +11596,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>11</v>
@@ -10211,7 +11619,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>11</v>
@@ -10234,7 +11642,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>11</v>
@@ -10257,7 +11665,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>11</v>
@@ -10280,7 +11688,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>11</v>
@@ -10303,7 +11711,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>11</v>
@@ -10326,7 +11734,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>11</v>
@@ -10349,7 +11757,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>11</v>
@@ -10372,7 +11780,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>11</v>
@@ -10395,7 +11803,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>11</v>
@@ -10418,7 +11826,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>
@@ -10441,7 +11849,7 @@
         <v>34</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>11</v>
@@ -10464,7 +11872,7 @@
         <v>34</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>11</v>
@@ -10487,7 +11895,7 @@
         <v>34</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>11</v>
@@ -10510,7 +11918,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>11</v>
@@ -10533,7 +11941,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>11</v>
@@ -10556,7 +11964,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>11</v>
@@ -10579,7 +11987,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>11</v>
@@ -10602,7 +12010,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>11</v>
@@ -10625,7 +12033,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>11</v>
@@ -10648,7 +12056,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>11</v>
@@ -10671,7 +12079,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>11</v>
@@ -10694,7 +12102,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>11</v>
@@ -10718,8 +12126,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10735,28 +12143,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -10779,10 +12187,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -10808,10 +12216,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -10837,10 +12245,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -10866,10 +12274,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -10895,10 +12303,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -10924,10 +12332,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -10953,10 +12361,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -10982,10 +12390,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -11011,10 +12419,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -11040,10 +12448,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -11069,10 +12477,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -11098,10 +12506,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -11127,10 +12535,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -11156,10 +12564,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
@@ -11185,10 +12593,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
@@ -11214,10 +12622,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -11243,10 +12651,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -11272,10 +12680,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -11301,10 +12709,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -11330,10 +12738,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -11359,10 +12767,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -11388,10 +12796,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -11417,10 +12825,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -11446,10 +12854,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -11475,10 +12883,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -11504,10 +12912,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -11533,10 +12941,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -11562,10 +12970,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -11591,10 +12999,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -11620,10 +13028,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -11649,10 +13057,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -11678,10 +13086,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -11720,25 +13128,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -11761,10 +13169,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>11</v>
@@ -11787,10 +13195,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>11</v>
@@ -11813,10 +13221,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>11</v>
@@ -11839,10 +13247,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>11</v>
@@ -11865,10 +13273,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>11</v>
@@ -11891,10 +13299,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>11</v>
@@ -11917,10 +13325,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>11</v>
@@ -11943,10 +13351,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>11</v>
@@ -11969,10 +13377,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>11</v>
@@ -11995,10 +13403,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>11</v>
@@ -12021,10 +13429,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>11</v>
@@ -12047,10 +13455,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>11</v>
@@ -12073,10 +13481,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>11</v>
@@ -12099,10 +13507,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>11</v>
@@ -12125,10 +13533,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>11</v>
@@ -12151,10 +13559,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>11</v>
@@ -12178,8 +13586,10 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12193,28 +13603,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -12237,10 +13647,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -12266,10 +13676,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -12295,10 +13705,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -12324,10 +13734,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -12353,10 +13763,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -12382,10 +13792,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -12411,10 +13821,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -12440,10 +13850,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -12469,10 +13879,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -12498,10 +13908,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -12527,10 +13937,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -12556,10 +13966,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -12585,10 +13995,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -12614,10 +14024,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
@@ -12643,10 +14053,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
@@ -12672,10 +14082,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -12701,10 +14111,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -12730,10 +14140,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -12759,10 +14169,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -12788,10 +14198,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -12817,10 +14227,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -12846,10 +14256,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -12875,10 +14285,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -12904,10 +14314,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -12933,10 +14343,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -12962,10 +14372,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -12991,10 +14401,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -13020,10 +14430,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -13049,10 +14459,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -13078,10 +14488,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -13107,10 +14517,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -13136,10 +14546,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -13165,10 +14575,10 @@
         <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
@@ -13194,10 +14604,10 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>34</v>
@@ -13223,10 +14633,10 @@
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>34</v>
@@ -13252,10 +14662,10 @@
         <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
@@ -13281,10 +14691,10 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
@@ -13310,10 +14720,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
@@ -13339,10 +14749,10 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>34</v>
@@ -13368,10 +14778,10 @@
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
@@ -13397,10 +14807,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
@@ -13426,10 +14836,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
@@ -13455,10 +14865,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>34</v>
@@ -13484,10 +14894,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>34</v>
@@ -13513,10 +14923,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>34</v>
@@ -13542,10 +14952,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>34</v>
@@ -13571,10 +14981,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>34</v>
@@ -13600,10 +15010,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>34</v>
@@ -13629,10 +15039,10 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
@@ -13658,10 +15068,10 @@
         <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
@@ -13687,10 +15097,10 @@
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
@@ -13716,10 +15126,10 @@
         <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
@@ -13745,10 +15155,10 @@
         <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
@@ -13774,10 +15184,10 @@
         <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
@@ -13803,10 +15213,10 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
@@ -13832,10 +15242,10 @@
         <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
@@ -13861,10 +15271,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
@@ -13890,10 +15300,10 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
@@ -13919,10 +15329,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
@@ -13948,10 +15358,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
@@ -13977,10 +15387,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
@@ -14006,10 +15416,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
@@ -14035,10 +15445,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
@@ -14064,10 +15474,10 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
@@ -14109,28 +15519,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -14153,10 +15563,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -14182,10 +15592,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -14211,10 +15621,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -14240,10 +15650,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -14269,10 +15679,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -14298,10 +15708,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -14327,10 +15737,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -14356,10 +15766,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -14385,10 +15795,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -14414,10 +15824,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -14443,10 +15853,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -14472,10 +15882,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -14501,10 +15911,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -14530,10 +15940,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
@@ -14559,10 +15969,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
@@ -14588,10 +15998,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -14617,10 +16027,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -14646,10 +16056,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -14675,10 +16085,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -14704,10 +16114,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -14733,10 +16143,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -14762,10 +16172,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -14791,10 +16201,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -14820,10 +16230,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -14849,10 +16259,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -14878,10 +16288,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -14907,10 +16317,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -14936,10 +16346,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -14965,10 +16375,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -14994,10 +16404,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -15023,10 +16433,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -15052,10 +16462,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -15081,10 +16491,10 @@
         <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
@@ -15110,10 +16520,10 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>34</v>
@@ -15139,10 +16549,10 @@
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>34</v>
@@ -15168,10 +16578,10 @@
         <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
@@ -15197,10 +16607,10 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
@@ -15226,10 +16636,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
@@ -15255,10 +16665,10 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>34</v>
@@ -15284,10 +16694,10 @@
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
@@ -15313,10 +16723,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
@@ -15342,10 +16752,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
@@ -15371,10 +16781,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>34</v>
@@ -15400,10 +16810,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>34</v>
@@ -15429,10 +16839,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>34</v>
@@ -15458,10 +16868,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>34</v>
@@ -15487,10 +16897,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>34</v>
@@ -15516,10 +16926,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>34</v>
@@ -15545,10 +16955,10 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
@@ -15574,10 +16984,10 @@
         <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
@@ -15603,10 +17013,10 @@
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
@@ -15632,10 +17042,10 @@
         <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
@@ -15661,10 +17071,10 @@
         <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
@@ -15690,10 +17100,10 @@
         <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
@@ -15719,10 +17129,10 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
@@ -15748,10 +17158,10 @@
         <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
@@ -15777,10 +17187,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
@@ -15806,10 +17216,10 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
@@ -15835,10 +17245,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
@@ -15864,10 +17274,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
@@ -15893,10 +17303,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
@@ -15922,10 +17332,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
@@ -15951,10 +17361,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
@@ -15980,10 +17390,10 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
@@ -16022,25 +17432,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>326</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>327</v>
+        <v>423</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -16063,10 +17473,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>11</v>
@@ -16089,10 +17499,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>11</v>
@@ -16115,10 +17525,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>11</v>
@@ -16141,10 +17551,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>11</v>
@@ -16167,10 +17577,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>11</v>
@@ -16193,10 +17603,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>11</v>
@@ -16219,10 +17629,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>11</v>
@@ -16245,10 +17655,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>11</v>
@@ -16271,10 +17681,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>11</v>
@@ -16297,10 +17707,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>11</v>
@@ -16323,10 +17733,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>11</v>
@@ -16349,10 +17759,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>11</v>
@@ -16375,10 +17785,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>11</v>
@@ -16401,10 +17811,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>11</v>
@@ -16427,10 +17837,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>11</v>
@@ -16453,10 +17863,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>11</v>

--- a/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
@@ -25,10 +25,10 @@
     <sheet name="WeeklyOff" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$356</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$356</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2660,7 +2660,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="K3:K35 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2828,7 +2828,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="1" sqref="K3:K35 H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7008,7 +7008,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K3:K35 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7091,7 +7091,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="K3:K35 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7219,7 +7219,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K3:K35 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7335,7 +7335,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="K3:K35 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7428,7 +7428,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="K3:K35 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7598,10 +7598,10 @@
   </sheetPr>
   <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D356" activeCellId="0" sqref="D356"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K3" activeCellId="0" sqref="K3:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7719,7 +7719,7 @@
         <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,7 +7754,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,7 +7789,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7824,7 +7824,7 @@
         <v>11</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7859,7 +7859,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,7 +7894,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7929,7 +7929,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,7 +7964,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7999,7 +7999,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8034,7 +8034,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8069,7 +8069,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,7 +8104,7 @@
         <v>11</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,7 +8139,7 @@
         <v>11</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,7 +8174,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8209,7 +8209,7 @@
         <v>11</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8244,7 +8244,7 @@
         <v>11</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8279,7 +8279,7 @@
         <v>11</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,7 +8314,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8349,7 +8349,7 @@
         <v>11</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8384,7 +8384,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,7 +8419,7 @@
         <v>11</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8454,7 +8454,7 @@
         <v>11</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,7 +8489,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8524,7 +8524,7 @@
         <v>11</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8559,7 +8559,7 @@
         <v>11</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8594,7 +8594,7 @@
         <v>11</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8629,7 +8629,7 @@
         <v>11</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,7 +8664,7 @@
         <v>11</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,7 +8699,7 @@
         <v>11</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8734,7 +8734,7 @@
         <v>11</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,7 +8769,7 @@
         <v>11</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8804,7 +8804,7 @@
         <v>11</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8839,7 +8839,7 @@
         <v>11</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20078,7 +20078,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K356"/>
+  <autoFilter ref="A1:K34"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20098,7 +20098,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="K3:K35 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20225,7 +20225,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="K3:K35 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21016,7 +21016,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="K3:K35 A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22006,7 +22006,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="K3:K35 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22504,7 +22504,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="K3:K35 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24420,7 +24420,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+      <selection pane="topLeft" activeCell="A66" activeCellId="1" sqref="K3:K35 A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26365,7 +26365,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="K3:K35 H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/LeaveDeductionPolicies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,8 +25,8 @@
     <sheet name="WeeklyOff" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$356</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$356</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$34</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7406" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="806">
   <si>
     <t xml:space="preserve">Shift Name</t>
   </si>
@@ -2259,21 +2259,6 @@
     <t xml:space="preserve">LatePlusearly#128</t>
   </si>
   <si>
-    <t xml:space="preserve">LateDurationEarlyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateDuration#17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyDuration#17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LateDurationEarlyMark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EarlyMark#65</t>
-  </si>
-  <si>
     <t xml:space="preserve">LeaveName</t>
   </si>
   <si>
@@ -2319,9 +2304,6 @@
     <t xml:space="preserve">2:0</t>
   </si>
   <si>
-    <t xml:space="preserve">0:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">No.of Instances</t>
   </si>
   <si>
@@ -2331,12 +2313,12 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">Count as 1 or 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Count as 1 or 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">W &lt; WH &gt; H &gt; N</t>
   </si>
   <si>
@@ -2472,43 +2454,10 @@
     <t xml:space="preserve">Frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance</t>
-  </si>
-  <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">5c002539dbbc4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bob</t>
-  </si>
-  <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5cf6581814b73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wild1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5cf0e202e3997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5c4506aa7beb9</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +2548,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2632,10 +2581,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2660,7 +2605,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="K3:K35 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2827,8 +2772,8 @@
   </sheetPr>
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="1" sqref="K3:K35 H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A129" activeCellId="0" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2845,31 +2790,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -2892,16 +2837,16 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>11</v>
@@ -2924,16 +2869,16 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>11</v>
@@ -2956,16 +2901,16 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>11</v>
@@ -2988,16 +2933,16 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>11</v>
@@ -3020,16 +2965,16 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>11</v>
@@ -3052,16 +2997,16 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>11</v>
@@ -3084,16 +3029,16 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>11</v>
@@ -3116,16 +3061,16 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>11</v>
@@ -3148,16 +3093,16 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>11</v>
@@ -3180,16 +3125,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>11</v>
@@ -3212,16 +3157,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>11</v>
@@ -3244,16 +3189,16 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>11</v>
@@ -3276,16 +3221,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>11</v>
@@ -3308,16 +3253,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>11</v>
@@ -3340,16 +3285,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>11</v>
@@ -3372,16 +3317,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>11</v>
@@ -3404,16 +3349,16 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>11</v>
@@ -3436,16 +3381,16 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>11</v>
@@ -3468,16 +3413,16 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>11</v>
@@ -3500,16 +3445,16 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>11</v>
@@ -3532,16 +3477,16 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>11</v>
@@ -3564,16 +3509,16 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>11</v>
@@ -3596,16 +3541,16 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>11</v>
@@ -3628,16 +3573,16 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>11</v>
@@ -3660,16 +3605,16 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>11</v>
@@ -3692,16 +3637,16 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>11</v>
@@ -3724,16 +3669,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>11</v>
@@ -3756,16 +3701,16 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>11</v>
@@ -3788,16 +3733,16 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>11</v>
@@ -3820,16 +3765,16 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>11</v>
@@ -3852,16 +3797,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>11</v>
@@ -3884,16 +3829,16 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>11</v>
@@ -3916,16 +3861,16 @@
         <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>11</v>
@@ -3948,16 +3893,16 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>11</v>
@@ -3980,16 +3925,16 @@
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>11</v>
@@ -3998,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,16 +3963,16 @@
         <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>11</v>
@@ -4036,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,16 +4001,16 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>11</v>
@@ -4074,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,16 +4039,16 @@
         <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>11</v>
@@ -4126,16 +4071,16 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J40" s="0" t="s">
         <v>11</v>
@@ -4158,16 +4103,16 @@
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>11</v>
@@ -4190,16 +4135,16 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>11</v>
@@ -4222,16 +4167,16 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>11</v>
@@ -4254,16 +4199,16 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>11</v>
@@ -4286,16 +4231,16 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>11</v>
@@ -4318,16 +4263,16 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>11</v>
@@ -4350,16 +4295,16 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>11</v>
@@ -4382,16 +4327,16 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>11</v>
@@ -4414,16 +4359,16 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>34</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>11</v>
@@ -4446,16 +4391,16 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>11</v>
@@ -4478,16 +4423,16 @@
         <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>11</v>
@@ -4510,16 +4455,16 @@
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>11</v>
@@ -4542,16 +4487,16 @@
         <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>11</v>
@@ -4574,16 +4519,16 @@
         <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>11</v>
@@ -4606,16 +4551,16 @@
         <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>11</v>
@@ -4638,16 +4583,16 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>11</v>
@@ -4670,16 +4615,16 @@
         <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>11</v>
@@ -4702,16 +4647,16 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J58" s="0" t="s">
         <v>11</v>
@@ -4734,16 +4679,16 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>11</v>
@@ -4766,16 +4711,16 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>11</v>
@@ -4798,16 +4743,16 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J61" s="0" t="s">
         <v>11</v>
@@ -4830,16 +4775,16 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>11</v>
@@ -4862,16 +4807,16 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>11</v>
@@ -4894,16 +4839,16 @@
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>11</v>
@@ -4926,16 +4871,16 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J65" s="0" t="s">
         <v>11</v>
@@ -4958,16 +4903,16 @@
         <v>34</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G66" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>11</v>
@@ -4990,16 +4935,16 @@
         <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G67" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>11</v>
@@ -5022,16 +4967,16 @@
         <v>34</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G68" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>11</v>
@@ -5054,16 +4999,16 @@
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G69" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>11</v>
@@ -5086,16 +5031,16 @@
         <v>34</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G70" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>11</v>
@@ -5118,16 +5063,16 @@
         <v>34</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G71" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>11</v>
@@ -5150,16 +5095,16 @@
         <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G72" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>11</v>
@@ -5182,16 +5127,16 @@
         <v>34</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G73" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>11</v>
@@ -5214,16 +5159,16 @@
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G74" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>11</v>
@@ -5246,16 +5191,16 @@
         <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G75" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>11</v>
@@ -5278,16 +5223,16 @@
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G76" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H76" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>11</v>
@@ -5310,16 +5255,16 @@
         <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G77" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J77" s="0" t="s">
         <v>11</v>
@@ -5342,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G78" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>11</v>
@@ -5374,16 +5319,16 @@
         <v>11</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G79" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>11</v>
@@ -5406,16 +5351,16 @@
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G80" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>11</v>
@@ -5438,16 +5383,16 @@
         <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G81" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>11</v>
@@ -5470,16 +5415,16 @@
         <v>34</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G82" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>11</v>
@@ -5502,16 +5447,16 @@
         <v>34</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G83" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>11</v>
@@ -5534,16 +5479,16 @@
         <v>34</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G84" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>11</v>
@@ -5566,16 +5511,16 @@
         <v>34</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G85" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>11</v>
@@ -5598,16 +5543,16 @@
         <v>34</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G86" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H86" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J86" s="0" t="s">
         <v>11</v>
@@ -5630,16 +5575,16 @@
         <v>34</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G87" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>11</v>
@@ -5662,16 +5607,16 @@
         <v>34</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G88" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>11</v>
@@ -5694,16 +5639,16 @@
         <v>34</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G89" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>11</v>
@@ -5726,16 +5671,16 @@
         <v>11</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G90" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>11</v>
@@ -5758,16 +5703,16 @@
         <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G91" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H91" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>11</v>
@@ -5790,16 +5735,16 @@
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G92" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H92" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>11</v>
@@ -5822,16 +5767,16 @@
         <v>11</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G93" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H93" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J93" s="0" t="s">
         <v>11</v>
@@ -5854,16 +5799,16 @@
         <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G94" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H94" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J94" s="0" t="s">
         <v>11</v>
@@ -5886,16 +5831,16 @@
         <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G95" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H95" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J95" s="0" t="s">
         <v>11</v>
@@ -5918,16 +5863,16 @@
         <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G96" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H96" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>11</v>
@@ -5950,16 +5895,16 @@
         <v>11</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G97" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H97" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>11</v>
@@ -5982,16 +5927,16 @@
         <v>34</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G98" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H98" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>11</v>
@@ -6014,16 +5959,16 @@
         <v>34</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G99" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H99" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I99" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>11</v>
@@ -6046,16 +5991,16 @@
         <v>34</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G100" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I100" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>11</v>
@@ -6078,16 +6023,16 @@
         <v>34</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G101" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H101" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>11</v>
@@ -6110,16 +6055,16 @@
         <v>34</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G102" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H102" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I102" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>11</v>
@@ -6142,16 +6087,16 @@
         <v>34</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G103" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H103" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>11</v>
@@ -6174,16 +6119,16 @@
         <v>34</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G104" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H104" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I104" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>11</v>
@@ -6206,16 +6151,16 @@
         <v>34</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G105" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H105" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I105" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>11</v>
@@ -6238,16 +6183,16 @@
         <v>11</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G106" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H106" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I106" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>11</v>
@@ -6270,16 +6215,16 @@
         <v>11</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G107" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H107" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I107" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J107" s="0" t="s">
         <v>11</v>
@@ -6302,16 +6247,16 @@
         <v>11</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G108" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H108" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I108" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J108" s="0" t="s">
         <v>11</v>
@@ -6334,16 +6279,16 @@
         <v>11</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G109" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H109" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>11</v>
@@ -6366,16 +6311,16 @@
         <v>11</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G110" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H110" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J110" s="0" t="s">
         <v>11</v>
@@ -6398,16 +6343,16 @@
         <v>11</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G111" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I111" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H111" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I111" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J111" s="0" t="s">
         <v>11</v>
@@ -6430,16 +6375,16 @@
         <v>11</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G112" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H112" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I112" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>11</v>
@@ -6462,16 +6407,16 @@
         <v>11</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G113" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H113" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I113" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J113" s="0" t="s">
         <v>11</v>
@@ -6494,16 +6439,16 @@
         <v>34</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G114" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H114" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>11</v>
@@ -6526,16 +6471,16 @@
         <v>34</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G115" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H115" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>11</v>
@@ -6558,16 +6503,16 @@
         <v>34</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G116" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H116" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J116" s="0" t="s">
         <v>11</v>
@@ -6590,16 +6535,16 @@
         <v>34</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G117" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H117" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J117" s="0" t="s">
         <v>11</v>
@@ -6622,16 +6567,16 @@
         <v>34</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G118" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H118" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J118" s="0" t="s">
         <v>11</v>
@@ -6654,16 +6599,16 @@
         <v>34</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G119" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H119" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J119" s="0" t="s">
         <v>11</v>
@@ -6686,16 +6631,16 @@
         <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G120" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H120" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>11</v>
@@ -6718,16 +6663,16 @@
         <v>34</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G121" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H121" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J121" s="0" t="s">
         <v>11</v>
@@ -6750,16 +6695,16 @@
         <v>11</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G122" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H122" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J122" s="0" t="s">
         <v>11</v>
@@ -6782,16 +6727,16 @@
         <v>11</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G123" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H123" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J123" s="0" t="s">
         <v>11</v>
@@ -6814,16 +6759,16 @@
         <v>11</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G124" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H124" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J124" s="0" t="s">
         <v>11</v>
@@ -6846,16 +6791,16 @@
         <v>11</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G125" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H125" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J125" s="0" t="s">
         <v>11</v>
@@ -6878,16 +6823,16 @@
         <v>11</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G126" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H126" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J126" s="0" t="s">
         <v>11</v>
@@ -6910,16 +6855,16 @@
         <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G127" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H127" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J127" s="0" t="s">
         <v>11</v>
@@ -6942,16 +6887,16 @@
         <v>11</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G128" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H128" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J128" s="0" t="s">
         <v>11</v>
@@ -6974,16 +6919,16 @@
         <v>11</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G129" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="H129" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="J129" s="0" t="s">
         <v>11</v>
@@ -7007,8 +6952,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K3:K35 I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7022,36 +6967,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>34</v>
@@ -7063,13 +7008,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -7091,7 +7036,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="K3:K35 J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7106,13 +7051,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -7121,19 +7066,19 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,7 +7164,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="K3:K35 I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7231,31 +7176,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,7 +7280,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="K3:K35 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7351,36 +7296,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>34</v>
@@ -7391,22 +7336,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>762</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -7425,10 +7370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="K3:K35 D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7436,147 +7381,48 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="F2" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="F7" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7596,12 +7442,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K356"/>
+  <dimension ref="A1:K354"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K3" activeCellId="0" sqref="K3:K35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A355" activeCellId="0" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8874,7 +8720,7 @@
         <v>11</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,7 +8755,7 @@
         <v>11</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8944,7 +8790,7 @@
         <v>11</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,7 +8825,7 @@
         <v>11</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,7 +8860,7 @@
         <v>11</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9049,7 +8895,7 @@
         <v>11</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9084,7 +8930,7 @@
         <v>11</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9119,7 +8965,7 @@
         <v>11</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9154,7 +9000,7 @@
         <v>11</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,7 +9035,7 @@
         <v>11</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9224,7 +9070,7 @@
         <v>11</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,7 +9105,7 @@
         <v>11</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9294,7 +9140,7 @@
         <v>11</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9329,7 +9175,7 @@
         <v>11</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9364,7 +9210,7 @@
         <v>11</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,7 +9245,7 @@
         <v>11</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9434,7 +9280,7 @@
         <v>11</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,7 +9315,7 @@
         <v>11</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9504,7 +9350,7 @@
         <v>11</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9539,7 +9385,7 @@
         <v>11</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,7 +9420,7 @@
         <v>11</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9609,7 +9455,7 @@
         <v>11</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9644,7 +9490,7 @@
         <v>11</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9679,7 +9525,7 @@
         <v>11</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9714,7 +9560,7 @@
         <v>11</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9749,7 +9595,7 @@
         <v>11</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9784,7 +9630,7 @@
         <v>11</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9819,7 +9665,7 @@
         <v>11</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9854,7 +9700,7 @@
         <v>11</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9889,7 +9735,7 @@
         <v>11</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9924,7 +9770,7 @@
         <v>11</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9959,7 +9805,7 @@
         <v>11</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9994,7 +9840,7 @@
         <v>11</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10029,7 +9875,7 @@
         <v>11</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10064,7 +9910,7 @@
         <v>11</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10099,7 +9945,7 @@
         <v>11</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10134,7 +9980,7 @@
         <v>11</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10169,7 +10015,7 @@
         <v>11</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10204,7 +10050,7 @@
         <v>11</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10239,7 +10085,7 @@
         <v>11</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10274,7 +10120,7 @@
         <v>11</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10309,7 +10155,7 @@
         <v>11</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10344,7 +10190,7 @@
         <v>11</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10379,7 +10225,7 @@
         <v>11</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10414,7 +10260,7 @@
         <v>11</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10449,7 +10295,7 @@
         <v>11</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10484,7 +10330,7 @@
         <v>11</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10519,7 +10365,7 @@
         <v>11</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +10400,7 @@
         <v>11</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,7 +10435,7 @@
         <v>11</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10624,7 +10470,7 @@
         <v>11</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10659,7 +10505,7 @@
         <v>11</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10694,7 +10540,7 @@
         <v>11</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10729,7 +10575,7 @@
         <v>11</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,7 +10610,7 @@
         <v>11</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10799,7 +10645,7 @@
         <v>11</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10834,7 +10680,7 @@
         <v>11</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10869,7 +10715,7 @@
         <v>11</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10904,7 +10750,7 @@
         <v>11</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10939,7 +10785,7 @@
         <v>11</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10974,7 +10820,7 @@
         <v>11</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11009,7 +10855,7 @@
         <v>11</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11044,7 +10890,7 @@
         <v>11</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11079,7 +10925,7 @@
         <v>11</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11114,7 +10960,7 @@
         <v>11</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11149,7 +10995,7 @@
         <v>11</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,7 +11030,7 @@
         <v>11</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11219,7 +11065,7 @@
         <v>11</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11254,7 +11100,7 @@
         <v>11</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11289,7 +11135,7 @@
         <v>11</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11324,7 +11170,7 @@
         <v>11</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11359,7 +11205,7 @@
         <v>11</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11394,7 +11240,7 @@
         <v>11</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11429,7 +11275,7 @@
         <v>11</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11464,7 +11310,7 @@
         <v>11</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11499,7 +11345,7 @@
         <v>11</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11534,7 +11380,7 @@
         <v>11</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11569,7 +11415,7 @@
         <v>11</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11604,7 +11450,7 @@
         <v>11</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11639,7 +11485,7 @@
         <v>11</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11674,7 +11520,7 @@
         <v>11</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11709,7 +11555,7 @@
         <v>11</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11744,7 +11590,7 @@
         <v>11</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11779,7 +11625,7 @@
         <v>11</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11814,7 +11660,7 @@
         <v>11</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11849,7 +11695,7 @@
         <v>11</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11884,7 +11730,7 @@
         <v>11</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11919,7 +11765,7 @@
         <v>11</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11954,7 +11800,7 @@
         <v>11</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,7 +11835,7 @@
         <v>11</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,7 +11870,7 @@
         <v>11</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12059,7 +11905,7 @@
         <v>11</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12094,7 +11940,7 @@
         <v>11</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12129,7 +11975,7 @@
         <v>11</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12164,7 +12010,7 @@
         <v>11</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12199,7 +12045,7 @@
         <v>11</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12234,7 +12080,7 @@
         <v>11</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12269,7 +12115,7 @@
         <v>11</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12304,7 +12150,7 @@
         <v>11</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12339,7 +12185,7 @@
         <v>11</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12374,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12409,7 +12255,7 @@
         <v>11</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12444,7 +12290,7 @@
         <v>11</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12479,7 +12325,7 @@
         <v>11</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12514,7 +12360,7 @@
         <v>11</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12549,7 +12395,7 @@
         <v>11</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12584,7 +12430,7 @@
         <v>11</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12619,7 +12465,7 @@
         <v>11</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12654,7 +12500,7 @@
         <v>11</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12689,7 +12535,7 @@
         <v>11</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12724,7 +12570,7 @@
         <v>11</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12759,7 +12605,7 @@
         <v>11</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12794,7 +12640,7 @@
         <v>11</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12829,7 +12675,7 @@
         <v>11</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,7 +12710,7 @@
         <v>11</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12899,7 +12745,7 @@
         <v>11</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12934,7 +12780,7 @@
         <v>11</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12969,7 +12815,7 @@
         <v>11</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13004,7 +12850,7 @@
         <v>11</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13039,7 +12885,7 @@
         <v>11</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13074,7 +12920,7 @@
         <v>11</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13109,7 +12955,7 @@
         <v>11</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,7 +12990,7 @@
         <v>11</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13179,7 +13025,7 @@
         <v>11</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13214,7 +13060,7 @@
         <v>11</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13249,7 +13095,7 @@
         <v>11</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13284,7 +13130,7 @@
         <v>11</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13319,7 +13165,7 @@
         <v>11</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13354,7 +13200,7 @@
         <v>11</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13389,7 +13235,7 @@
         <v>11</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13424,7 +13270,7 @@
         <v>11</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13459,7 +13305,7 @@
         <v>11</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13494,7 +13340,7 @@
         <v>11</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13529,7 +13375,7 @@
         <v>11</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13564,7 +13410,7 @@
         <v>11</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13599,7 +13445,7 @@
         <v>11</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13634,7 +13480,7 @@
         <v>11</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,7 +13515,7 @@
         <v>11</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13704,7 +13550,7 @@
         <v>11</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13739,7 +13585,7 @@
         <v>11</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13774,7 +13620,7 @@
         <v>11</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13809,7 +13655,7 @@
         <v>11</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13844,7 +13690,7 @@
         <v>11</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13879,7 +13725,7 @@
         <v>11</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +13760,7 @@
         <v>11</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13949,7 +13795,7 @@
         <v>11</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,7 +13830,7 @@
         <v>11</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14019,7 +13865,7 @@
         <v>11</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14054,7 +13900,7 @@
         <v>11</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14089,7 +13935,7 @@
         <v>11</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14124,7 +13970,7 @@
         <v>11</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14159,7 +14005,7 @@
         <v>11</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,7 +14040,7 @@
         <v>11</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14229,7 +14075,7 @@
         <v>11</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14264,7 +14110,7 @@
         <v>11</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14299,7 +14145,7 @@
         <v>11</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14334,7 +14180,7 @@
         <v>11</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14369,7 +14215,7 @@
         <v>11</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14404,7 +14250,7 @@
         <v>11</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14439,7 +14285,7 @@
         <v>11</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14474,7 +14320,7 @@
         <v>11</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14509,7 +14355,7 @@
         <v>11</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14544,7 +14390,7 @@
         <v>11</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14579,7 +14425,7 @@
         <v>11</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,7 +14460,7 @@
         <v>11</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14649,7 +14495,7 @@
         <v>11</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14684,7 +14530,7 @@
         <v>11</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14719,7 +14565,7 @@
         <v>11</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,7 +14600,7 @@
         <v>11</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14789,7 +14635,7 @@
         <v>11</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14824,7 +14670,7 @@
         <v>11</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14859,7 +14705,7 @@
         <v>11</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14894,7 +14740,7 @@
         <v>11</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14929,7 +14775,7 @@
         <v>11</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14964,7 +14810,7 @@
         <v>11</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14999,7 +14845,7 @@
         <v>11</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15034,7 +14880,7 @@
         <v>11</v>
       </c>
       <c r="K212" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15069,7 +14915,7 @@
         <v>11</v>
       </c>
       <c r="K213" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15104,7 +14950,7 @@
         <v>11</v>
       </c>
       <c r="K214" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15139,7 +14985,7 @@
         <v>11</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,7 +15020,7 @@
         <v>11</v>
       </c>
       <c r="K216" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15209,7 +15055,7 @@
         <v>11</v>
       </c>
       <c r="K217" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15244,7 +15090,7 @@
         <v>11</v>
       </c>
       <c r="K218" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15279,7 +15125,7 @@
         <v>11</v>
       </c>
       <c r="K219" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15314,7 +15160,7 @@
         <v>11</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15349,7 +15195,7 @@
         <v>11</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15384,7 +15230,7 @@
         <v>11</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15419,7 +15265,7 @@
         <v>11</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15454,7 +15300,7 @@
         <v>11</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15489,7 +15335,7 @@
         <v>11</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15524,7 +15370,7 @@
         <v>11</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15559,7 +15405,7 @@
         <v>11</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15594,7 +15440,7 @@
         <v>11</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15629,7 +15475,7 @@
         <v>11</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15664,7 +15510,7 @@
         <v>11</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15699,7 +15545,7 @@
         <v>11</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15734,7 +15580,7 @@
         <v>11</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15769,7 +15615,7 @@
         <v>11</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15804,7 +15650,7 @@
         <v>11</v>
       </c>
       <c r="K234" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15839,7 +15685,7 @@
         <v>11</v>
       </c>
       <c r="K235" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15874,7 +15720,7 @@
         <v>11</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15909,7 +15755,7 @@
         <v>11</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15944,7 +15790,7 @@
         <v>11</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15979,7 +15825,7 @@
         <v>11</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16014,7 +15860,7 @@
         <v>11</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16049,7 +15895,7 @@
         <v>11</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16084,7 +15930,7 @@
         <v>11</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16119,7 +15965,7 @@
         <v>11</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16154,7 +16000,7 @@
         <v>11</v>
       </c>
       <c r="K244" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16189,7 +16035,7 @@
         <v>11</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16224,7 +16070,7 @@
         <v>11</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16259,7 +16105,7 @@
         <v>11</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16294,7 +16140,7 @@
         <v>11</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16329,7 +16175,7 @@
         <v>11</v>
       </c>
       <c r="K249" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16364,7 +16210,7 @@
         <v>11</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16399,7 +16245,7 @@
         <v>11</v>
       </c>
       <c r="K251" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16434,7 +16280,7 @@
         <v>11</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16469,7 +16315,7 @@
         <v>11</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16504,7 +16350,7 @@
         <v>11</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16539,7 +16385,7 @@
         <v>11</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16574,7 +16420,7 @@
         <v>11</v>
       </c>
       <c r="K256" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16609,7 +16455,7 @@
         <v>11</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16644,7 +16490,7 @@
         <v>11</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16679,7 +16525,7 @@
         <v>11</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16714,7 +16560,7 @@
         <v>11</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16749,7 +16595,7 @@
         <v>11</v>
       </c>
       <c r="K261" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16784,7 +16630,7 @@
         <v>11</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16819,7 +16665,7 @@
         <v>11</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16854,7 +16700,7 @@
         <v>11</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16889,7 +16735,7 @@
         <v>11</v>
       </c>
       <c r="K265" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16924,7 +16770,7 @@
         <v>11</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16959,7 +16805,7 @@
         <v>11</v>
       </c>
       <c r="K267" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16994,7 +16840,7 @@
         <v>11</v>
       </c>
       <c r="K268" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17029,7 +16875,7 @@
         <v>11</v>
       </c>
       <c r="K269" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17064,7 +16910,7 @@
         <v>11</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17099,7 +16945,7 @@
         <v>11</v>
       </c>
       <c r="K271" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17134,7 +16980,7 @@
         <v>11</v>
       </c>
       <c r="K272" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17169,7 +17015,7 @@
         <v>11</v>
       </c>
       <c r="K273" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17204,7 +17050,7 @@
         <v>11</v>
       </c>
       <c r="K274" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17239,7 +17085,7 @@
         <v>11</v>
       </c>
       <c r="K275" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17274,7 +17120,7 @@
         <v>11</v>
       </c>
       <c r="K276" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17309,7 +17155,7 @@
         <v>11</v>
       </c>
       <c r="K277" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17344,7 +17190,7 @@
         <v>11</v>
       </c>
       <c r="K278" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17379,7 +17225,7 @@
         <v>11</v>
       </c>
       <c r="K279" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17414,7 +17260,7 @@
         <v>11</v>
       </c>
       <c r="K280" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17449,7 +17295,7 @@
         <v>11</v>
       </c>
       <c r="K281" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17484,7 +17330,7 @@
         <v>11</v>
       </c>
       <c r="K282" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17519,7 +17365,7 @@
         <v>11</v>
       </c>
       <c r="K283" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17554,7 +17400,7 @@
         <v>11</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17589,7 +17435,7 @@
         <v>11</v>
       </c>
       <c r="K285" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17624,7 +17470,7 @@
         <v>11</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17659,7 +17505,7 @@
         <v>11</v>
       </c>
       <c r="K287" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17694,7 +17540,7 @@
         <v>11</v>
       </c>
       <c r="K288" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17729,7 +17575,7 @@
         <v>11</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17764,7 +17610,7 @@
         <v>11</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17799,7 +17645,7 @@
         <v>11</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,7 +17680,7 @@
         <v>11</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17869,7 +17715,7 @@
         <v>11</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17904,7 +17750,7 @@
         <v>11</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17939,7 +17785,7 @@
         <v>11</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17974,7 +17820,7 @@
         <v>11</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18009,7 +17855,7 @@
         <v>11</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18044,7 +17890,7 @@
         <v>11</v>
       </c>
       <c r="K298" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18079,7 +17925,7 @@
         <v>11</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18114,7 +17960,7 @@
         <v>11</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18149,7 +17995,7 @@
         <v>11</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18184,7 +18030,7 @@
         <v>11</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18219,7 +18065,7 @@
         <v>11</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18254,7 +18100,7 @@
         <v>11</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18289,7 +18135,7 @@
         <v>11</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18324,7 +18170,7 @@
         <v>11</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18359,7 +18205,7 @@
         <v>11</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18394,7 +18240,7 @@
         <v>11</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18429,7 +18275,7 @@
         <v>11</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18464,7 +18310,7 @@
         <v>11</v>
       </c>
       <c r="K310" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18499,7 +18345,7 @@
         <v>11</v>
       </c>
       <c r="K311" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18534,7 +18380,7 @@
         <v>11</v>
       </c>
       <c r="K312" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18569,7 +18415,7 @@
         <v>11</v>
       </c>
       <c r="K313" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18604,7 +18450,7 @@
         <v>11</v>
       </c>
       <c r="K314" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18639,7 +18485,7 @@
         <v>11</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18674,7 +18520,7 @@
         <v>11</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18709,7 +18555,7 @@
         <v>11</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18744,7 +18590,7 @@
         <v>11</v>
       </c>
       <c r="K318" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18779,7 +18625,7 @@
         <v>11</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18814,7 +18660,7 @@
         <v>11</v>
       </c>
       <c r="K320" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18849,7 +18695,7 @@
         <v>11</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18884,7 +18730,7 @@
         <v>11</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18919,7 +18765,7 @@
         <v>11</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18954,7 +18800,7 @@
         <v>11</v>
       </c>
       <c r="K324" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18989,7 +18835,7 @@
         <v>11</v>
       </c>
       <c r="K325" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19024,7 +18870,7 @@
         <v>11</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19059,7 +18905,7 @@
         <v>11</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19094,7 +18940,7 @@
         <v>11</v>
       </c>
       <c r="K328" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19129,7 +18975,7 @@
         <v>11</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19164,7 +19010,7 @@
         <v>11</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19199,7 +19045,7 @@
         <v>11</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19234,7 +19080,7 @@
         <v>11</v>
       </c>
       <c r="K332" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19269,7 +19115,7 @@
         <v>11</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19304,7 +19150,7 @@
         <v>11</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19339,7 +19185,7 @@
         <v>11</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19374,7 +19220,7 @@
         <v>11</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19409,7 +19255,7 @@
         <v>11</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19444,7 +19290,7 @@
         <v>11</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19479,7 +19325,7 @@
         <v>11</v>
       </c>
       <c r="K339" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19514,7 +19360,7 @@
         <v>11</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19549,7 +19395,7 @@
         <v>11</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19584,7 +19430,7 @@
         <v>11</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19619,7 +19465,7 @@
         <v>11</v>
       </c>
       <c r="K343" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19654,7 +19500,7 @@
         <v>11</v>
       </c>
       <c r="K344" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19689,7 +19535,7 @@
         <v>11</v>
       </c>
       <c r="K345" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19724,7 +19570,7 @@
         <v>11</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19759,7 +19605,7 @@
         <v>11</v>
       </c>
       <c r="K347" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19794,7 +19640,7 @@
         <v>11</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19829,7 +19675,7 @@
         <v>11</v>
       </c>
       <c r="K349" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19864,7 +19710,7 @@
         <v>11</v>
       </c>
       <c r="K350" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19899,7 +19745,7 @@
         <v>11</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19934,7 +19780,7 @@
         <v>11</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19969,7 +19815,7 @@
         <v>11</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20004,81 +19850,11 @@
         <v>11</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D355" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E355" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="F355" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G355" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H355" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I355" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="J355" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D356" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E356" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="F356" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G356" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="H356" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I356" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J356" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="0" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K34"/>
+  <autoFilter ref="A1:K356"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20098,7 +19874,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="K3:K35 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20109,7 +19885,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -20224,8 +20000,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="K3:K35 D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20240,22 +20016,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>750</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
@@ -20278,7 +20054,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>11</v>
@@ -20301,7 +20077,7 @@
         <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>11</v>
@@ -20324,7 +20100,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>11</v>
@@ -20347,7 +20123,7 @@
         <v>34</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>11</v>
@@ -20370,7 +20146,7 @@
         <v>34</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>11</v>
@@ -20393,7 +20169,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>11</v>
@@ -20416,7 +20192,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>11</v>
@@ -20439,7 +20215,7 @@
         <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>11</v>
@@ -20462,7 +20238,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>11</v>
@@ -20485,7 +20261,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>11</v>
@@ -20508,7 +20284,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>11</v>
@@ -20531,7 +20307,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>11</v>
@@ -20554,7 +20330,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>11</v>
@@ -20577,7 +20353,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>11</v>
@@ -20600,7 +20376,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>11</v>
@@ -20623,7 +20399,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>11</v>
@@ -20646,7 +20422,7 @@
         <v>34</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>11</v>
@@ -20669,7 +20445,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>11</v>
@@ -20692,7 +20468,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>11</v>
@@ -20715,7 +20491,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>11</v>
@@ -20738,7 +20514,7 @@
         <v>34</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>11</v>
@@ -20761,7 +20537,7 @@
         <v>34</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>11</v>
@@ -20784,7 +20560,7 @@
         <v>34</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>11</v>
@@ -20807,7 +20583,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>11</v>
@@ -20830,7 +20606,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>11</v>
@@ -20853,7 +20629,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>11</v>
@@ -20876,7 +20652,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>11</v>
@@ -20899,7 +20675,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>11</v>
@@ -20922,7 +20698,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>11</v>
@@ -20945,7 +20721,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>11</v>
@@ -20968,7 +20744,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>11</v>
@@ -20991,7 +20767,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>11</v>
@@ -21016,7 +20792,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="K3:K35 A34"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21032,28 +20808,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>754</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -21076,10 +20852,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -21105,10 +20881,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -21134,10 +20910,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -21163,10 +20939,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -21192,10 +20968,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -21221,10 +20997,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -21250,10 +21026,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -21279,10 +21055,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -21308,10 +21084,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -21337,10 +21113,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -21366,10 +21142,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -21395,10 +21171,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -21424,10 +21200,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -21453,10 +21229,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
@@ -21482,10 +21258,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
@@ -21511,10 +21287,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -21540,10 +21316,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -21569,10 +21345,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -21598,10 +21374,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -21627,10 +21403,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -21656,10 +21432,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -21685,10 +21461,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -21714,10 +21490,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -21743,10 +21519,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -21772,10 +21548,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -21801,10 +21577,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -21830,10 +21606,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -21859,10 +21635,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -21888,10 +21664,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -21917,10 +21693,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -21946,10 +21722,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -21975,10 +21751,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -22003,10 +21779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="K3:K35 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22017,25 +21793,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>749</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>754</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>6</v>
@@ -22058,10 +21834,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>11</v>
@@ -22084,10 +21860,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>11</v>
@@ -22110,10 +21886,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>11</v>
@@ -22136,10 +21912,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>11</v>
@@ -22162,10 +21938,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>11</v>
@@ -22188,10 +21964,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>11</v>
@@ -22214,10 +21990,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>11</v>
@@ -22240,10 +22016,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>11</v>
@@ -22266,10 +22042,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>11</v>
@@ -22292,10 +22068,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>11</v>
@@ -22318,10 +22094,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>11</v>
@@ -22344,10 +22120,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>11</v>
@@ -22370,10 +22146,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>11</v>
@@ -22396,10 +22172,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>11</v>
@@ -22422,10 +22198,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>11</v>
@@ -22448,38 +22224,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="H18" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22502,9 +22252,9 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="K3:K35 A2"/>
+      <selection pane="bottomLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22518,28 +22268,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>750</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -22562,10 +22312,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -22591,10 +22341,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -22620,10 +22370,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -22649,10 +22399,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -22678,10 +22428,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -22707,10 +22457,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -22736,10 +22486,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -22765,10 +22515,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -22794,10 +22544,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -22823,10 +22573,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -22852,10 +22602,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -22881,10 +22631,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -22910,10 +22660,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -22939,10 +22689,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
@@ -22968,10 +22718,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
@@ -22997,10 +22747,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -23026,10 +22776,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -23055,10 +22805,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -23084,10 +22834,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -23113,10 +22863,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -23142,10 +22892,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -23171,10 +22921,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -23200,10 +22950,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -23229,10 +22979,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -23258,10 +23008,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -23287,10 +23037,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -23316,10 +23066,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -23345,10 +23095,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -23374,10 +23124,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -23403,10 +23153,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -23432,10 +23182,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -23461,10 +23211,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -23490,10 +23240,10 @@
         <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
@@ -23519,10 +23269,10 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>34</v>
@@ -23548,10 +23298,10 @@
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>34</v>
@@ -23577,10 +23327,10 @@
         <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
@@ -23606,10 +23356,10 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
@@ -23635,10 +23385,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
@@ -23664,10 +23414,10 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>34</v>
@@ -23693,10 +23443,10 @@
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
@@ -23722,10 +23472,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
@@ -23751,10 +23501,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
@@ -23780,10 +23530,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>34</v>
@@ -23809,10 +23559,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>34</v>
@@ -23838,10 +23588,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>34</v>
@@ -23867,10 +23617,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>34</v>
@@ -23896,10 +23646,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>34</v>
@@ -23925,10 +23675,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>34</v>
@@ -23954,10 +23704,10 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
@@ -23983,10 +23733,10 @@
         <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
@@ -24012,10 +23762,10 @@
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
@@ -24041,10 +23791,10 @@
         <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
@@ -24070,10 +23820,10 @@
         <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
@@ -24099,10 +23849,10 @@
         <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
@@ -24128,10 +23878,10 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
@@ -24157,10 +23907,10 @@
         <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
@@ -24186,10 +23936,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
@@ -24215,10 +23965,10 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
@@ -24244,10 +23994,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
@@ -24273,10 +24023,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
@@ -24302,10 +24052,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
@@ -24331,10 +24081,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
@@ -24360,10 +24110,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
@@ -24389,10 +24139,10 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
@@ -24417,10 +24167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="1" sqref="K3:K35 A66"/>
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24434,28 +24184,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>746</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>750</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
@@ -24478,10 +24228,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>34</v>
@@ -24507,10 +24257,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>34</v>
@@ -24536,10 +24286,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>34</v>
@@ -24565,10 +24315,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>34</v>
@@ -24594,10 +24344,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>34</v>
@@ -24623,10 +24373,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>34</v>
@@ -24652,10 +24402,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>34</v>
@@ -24681,10 +24431,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>34</v>
@@ -24710,10 +24460,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>34</v>
@@ -24739,10 +24489,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>34</v>
@@ -24768,10 +24518,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>34</v>
@@ -24797,10 +24547,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>34</v>
@@ -24826,10 +24576,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>34</v>
@@ -24855,10 +24605,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>34</v>
@@ -24884,10 +24634,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>34</v>
@@ -24913,10 +24663,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>34</v>
@@ -24942,10 +24692,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>11</v>
@@ -24971,10 +24721,10 @@
         <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>11</v>
@@ -25000,10 +24750,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>11</v>
@@ -25029,10 +24779,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>11</v>
@@ -25058,10 +24808,10 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>11</v>
@@ -25087,10 +24837,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>11</v>
@@ -25116,10 +24866,10 @@
         <v>34</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>11</v>
@@ -25145,10 +24895,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>11</v>
@@ -25174,10 +24924,10 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>11</v>
@@ -25203,10 +24953,10 @@
         <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>11</v>
@@ -25232,10 +24982,10 @@
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>11</v>
@@ -25261,10 +25011,10 @@
         <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>11</v>
@@ -25290,10 +25040,10 @@
         <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>11</v>
@@ -25319,10 +25069,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>11</v>
@@ -25348,10 +25098,10 @@
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
@@ -25377,10 +25127,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>11</v>
@@ -25406,10 +25156,10 @@
         <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>34</v>
@@ -25435,10 +25185,10 @@
         <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>34</v>
@@ -25464,10 +25214,10 @@
         <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>34</v>
@@ -25493,10 +25243,10 @@
         <v>34</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>34</v>
@@ -25522,10 +25272,10 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>34</v>
@@ -25551,10 +25301,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>34</v>
@@ -25580,10 +25330,10 @@
         <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>34</v>
@@ -25609,10 +25359,10 @@
         <v>34</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>34</v>
@@ -25638,10 +25388,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>34</v>
@@ -25667,10 +25417,10 @@
         <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>34</v>
@@ -25696,10 +25446,10 @@
         <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>34</v>
@@ -25725,10 +25475,10 @@
         <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>34</v>
@@ -25754,10 +25504,10 @@
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>34</v>
@@ -25783,10 +25533,10 @@
         <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>34</v>
@@ -25812,10 +25562,10 @@
         <v>11</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>34</v>
@@ -25841,10 +25591,10 @@
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>34</v>
@@ -25870,10 +25620,10 @@
         <v>34</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>11</v>
@@ -25899,10 +25649,10 @@
         <v>34</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>11</v>
@@ -25928,10 +25678,10 @@
         <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>11</v>
@@ -25957,10 +25707,10 @@
         <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>11</v>
@@ -25986,10 +25736,10 @@
         <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>11</v>
@@ -26015,10 +25765,10 @@
         <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>11</v>
@@ -26044,10 +25794,10 @@
         <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>11</v>
@@ -26073,10 +25823,10 @@
         <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>11</v>
@@ -26102,10 +25852,10 @@
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>11</v>
@@ -26131,10 +25881,10 @@
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>11</v>
@@ -26160,10 +25910,10 @@
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>11</v>
@@ -26189,10 +25939,10 @@
         <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>11</v>
@@ -26218,10 +25968,10 @@
         <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>11</v>
@@ -26247,10 +25997,10 @@
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>11</v>
@@ -26276,10 +26026,10 @@
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>11</v>
@@ -26305,44 +26055,15 @@
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -26362,10 +26083,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="K3:K35 H18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26376,25 +26097,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -26417,10 +26138,10 @@
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>11</v>
@@ -26443,10 +26164,10 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>11</v>
@@ -26469,10 +26190,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>11</v>
@@ -26495,10 +26216,10 @@
         <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>11</v>
@@ -26521,10 +26242,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>11</v>
@@ -26547,10 +26268,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>11</v>
@@ -26573,10 +26294,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>11</v>
@@ -26599,10 +26320,10 @@
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>11</v>
@@ -26625,10 +26346,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>11</v>
@@ -26651,10 +26372,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>11</v>
@@ -26677,10 +26398,10 @@
         <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>11</v>
@@ -26703,10 +26424,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>11</v>
@@ -26729,10 +26450,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>11</v>
@@ -26755,10 +26476,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>11</v>
@@ -26781,10 +26502,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>11</v>
@@ -26807,38 +26528,12 @@
         <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="H18" s="0" t="s">
         <v>11</v>
       </c>
     </row>
